--- a/biology/Zoologie/Globicephala/Globicephala.xlsx
+++ b/biology/Zoologie/Globicephala/Globicephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les globicéphales (Globicephala) sont un genre de cétacés odontocètes de la famille des delphinidés (les dauphins océaniques). Ils sont parfois appelés « dauphins-pilotes » car on les voit fréquemment dans le sillage ou à l’étrave des navires (en anglais pilot whale).  Dauphins au melon frontal fortement développé, ce sont des animaux sociaux qui se déplacent le plus souvent en bandes pouvant aller d'une dizaine à plusieurs centaines d'individus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les globicéphales (Globicephala) sont un genre de cétacés odontocètes de la famille des delphinidés (les dauphins océaniques). Ils sont parfois appelés « dauphins-pilotes » car on les voit fréquemment dans le sillage ou à l’étrave des navires (en anglais pilot whale).  Dauphins au melon frontal fortement développé, ce sont des animaux sociaux qui se déplacent le plus souvent en bandes pouvant aller d'une dizaine à plusieurs centaines d'individus.
 </t>
         </is>
       </c>
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces actuelles
-Selon ITIS      (10 février 2017)[2] et Mammal Species of the World (version 3, 2005)  (10 février 2017)[3]:
+          <t>Liste des espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (10 février 2017) et Mammal Species of the World (version 3, 2005)  (10 février 2017):
 Globicephala macrorhynchus Gray, 1846 - le Globicéphale tropical
 Globicephala melas (Traill, 1809) - le Globicéphale noir
 			Globicephala macrorhynchus
 			Globicephala melas
-Liste des espèces éteintes
-Selon Paleobiology Database                   (février 2017)[4]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Globicephala</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Globicephala</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (février 2017):
 † Globicephala etruriae Pilleri, 1987
 † Globicephalus karsteni Olfers, 1839
 † Globicephala uncidens Lankester, 1864</t>
